--- a/biology/Histoire de la zoologie et de la botanique/Sébastien_Santa/Sébastien_Santa.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sébastien_Santa/Sébastien_Santa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Santa</t>
+          <t>Sébastien_Santa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sébastien SANTA est un pharmacien botaniste français. Il est connu pour sa collaboration avec Pierre Quézel dans la rédaction de la Nouvelle Flore de l'Algérie.
 Il a également rédigé le CATALOGUE DES PLANTES, De l'Algérie Occidentale et du Maroc Oriental publié en 1949. En 1961, il sort un mémoire nommée LES POISSON ET LE MONDE MARIN DES COTES DE L'ORANIE en collaboration avec A. SIMONET.
